--- a/states_income.xlsx
+++ b/states_income.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eded1c9e32d3d517/Desktop/income_states/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E99FACF0-A812-4836-977A-2C5868235D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E99FACF0-A812-4836-977A-2C5868235D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE724471-0FCA-44D6-8916-7A4A08965E4A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="india" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6468" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6469" uniqueCount="56">
   <si>
     <t>state</t>
   </si>
@@ -186,11 +186,14 @@
   <si>
     <t>Social Sector Expenditure</t>
   </si>
+  <si>
+    <t>income</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1024,10 +1027,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI608"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AM11" sqref="AM11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1125,8 +1130,8 @@
       <c r="AE1">
         <v>2019</v>
       </c>
-      <c r="AF1">
-        <v>2020</v>
+      <c r="AF1" t="s">
+        <v>55</v>
       </c>
       <c r="AG1">
         <v>2021</v>
